--- a/FE/public/excel/template.xlsx
+++ b/FE/public/excel/template.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="나이">Sheet2!$C$3:$C$10</definedName>
